--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="980" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2520" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>

--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2520" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="280" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>

--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="280" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1120" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>
@@ -139,7 +139,7 @@
     <col min="13" max="13" width="13.85546875" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
-    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -236,10 +236,10 @@
         <v>20.482721761715624</v>
       </c>
       <c r="O2" s="0">
-        <v>24.330600000000004</v>
+        <v>1013.3541529367591</v>
       </c>
       <c r="P2" s="0">
-        <v>4.7127334349707191</v>
+        <v>223.50905325444523</v>
       </c>
     </row>
     <row r="3">
@@ -286,10 +286,10 @@
         <v>27.436275756813004</v>
       </c>
       <c r="O3" s="0">
-        <v>25.620859090909097</v>
+        <v>1012.6725564179686</v>
       </c>
       <c r="P3" s="0">
-        <v>5.8599389271438129</v>
+        <v>218.1014657261255</v>
       </c>
     </row>
     <row r="4">
@@ -336,10 +336,10 @@
         <v>12.977097323077732</v>
       </c>
       <c r="O4" s="0">
-        <v>22.487372727272724</v>
+        <v>869.68670755655762</v>
       </c>
       <c r="P4" s="0">
-        <v>5.2941144750835578</v>
+        <v>194.19713312888376</v>
       </c>
     </row>
     <row r="5">
@@ -386,10 +386,10 @@
         <v>20.694346792312217</v>
       </c>
       <c r="O5" s="0">
-        <v>25.113163157894736</v>
+        <v>969.58536317097639</v>
       </c>
       <c r="P5" s="0">
-        <v>5.0303947156710178</v>
+        <v>189.87261388109241</v>
       </c>
     </row>
     <row r="6">
@@ -436,10 +436,10 @@
         <v>26.499767693065944</v>
       </c>
       <c r="O6" s="0">
-        <v>23.716190909090912</v>
+        <v>935.45722086368585</v>
       </c>
       <c r="P6" s="0">
-        <v>3.2709917357794089</v>
+        <v>125.60844660689307</v>
       </c>
     </row>
     <row r="7">
@@ -486,10 +486,10 @@
         <v>7.6391943499119801</v>
       </c>
       <c r="O7" s="0">
-        <v>27.341204545454548</v>
+        <v>1058.4744834011026</v>
       </c>
       <c r="P7" s="0">
-        <v>3.9533048129714317</v>
+        <v>148.9176572687704</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>10.553520710750574</v>
       </c>
       <c r="O8" s="0">
-        <v>27.095440909090915</v>
+        <v>1062.9633821786867</v>
       </c>
       <c r="P8" s="0">
-        <v>3.7134917984463218</v>
+        <v>150.37190999404399</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>13.20547667334789</v>
       </c>
       <c r="O9" s="0">
-        <v>33.266838888888891</v>
+        <v>1307.6147416838887</v>
       </c>
       <c r="P9" s="0">
-        <v>5.9294409082190356</v>
+        <v>235.0643201677463</v>
       </c>
     </row>
     <row r="10">
@@ -636,10 +636,10 @@
         <v>11.795884786268511</v>
       </c>
       <c r="O10" s="0">
-        <v>31.642068181818182</v>
+        <v>1234.1926776994983</v>
       </c>
       <c r="P10" s="0">
-        <v>6.5948165824045359</v>
+        <v>282.30160267793923</v>
       </c>
     </row>
     <row r="11">
@@ -686,10 +686,10 @@
         <v>7.3199426312694635</v>
       </c>
       <c r="O11" s="0">
-        <v>30.720454545454547</v>
+        <v>1214.0962080538557</v>
       </c>
       <c r="P11" s="0">
-        <v>6.6083090961262476</v>
+        <v>282.77463501870756</v>
       </c>
     </row>
     <row r="12">
@@ -736,10 +736,10 @@
         <v>5.309460227813231</v>
       </c>
       <c r="O12" s="0">
-        <v>32.748004545454542</v>
+        <v>1198.6011843622302</v>
       </c>
       <c r="P12" s="0">
-        <v>6.4131758492933955</v>
+        <v>242.30707532578847</v>
       </c>
     </row>
     <row r="13">
@@ -786,10 +786,10 @@
         <v>8.7504846061994943</v>
       </c>
       <c r="O13" s="0">
-        <v>33.152221052631589</v>
+        <v>1193.7060900255703</v>
       </c>
       <c r="P13" s="0">
-        <v>5.9706176375509958</v>
+        <v>212.97821622205674</v>
       </c>
     </row>
     <row r="14">
@@ -836,10 +836,10 @@
         <v>26.164737075807793</v>
       </c>
       <c r="O14" s="0">
-        <v>31.396304545454544</v>
+        <v>1148.51923498107</v>
       </c>
       <c r="P14" s="0">
-        <v>5.1065702029144173</v>
+        <v>186.24049534958002</v>
       </c>
     </row>
     <row r="15">
@@ -886,10 +886,10 @@
         <v>10.761253740911416</v>
       </c>
       <c r="O15" s="0">
-        <v>28.508581818181824</v>
+        <v>1051.6128144942913</v>
       </c>
       <c r="P15" s="0">
-        <v>5.0347995111325217</v>
+        <v>189.91703814034412</v>
       </c>
     </row>
     <row r="16">
@@ -936,10 +936,10 @@
         <v>13.029101609283991</v>
       </c>
       <c r="O16" s="0">
-        <v>28.877227272727271</v>
+        <v>1058.6948163905847</v>
       </c>
       <c r="P16" s="0">
-        <v>4.1889819539045208</v>
+        <v>157.32769425745403</v>
       </c>
     </row>
     <row r="17">
@@ -986,10 +986,10 @@
         <v>5.2854190521024105</v>
       </c>
       <c r="O17" s="0">
-        <v>4.5619875000000008</v>
+        <v>135.8047085719584</v>
       </c>
       <c r="P17" s="0">
-        <v>1.5733873434905499</v>
+        <v>47.440191316611013</v>
       </c>
     </row>
     <row r="18">
@@ -1036,10 +1036,10 @@
         <v>20.75096844567577</v>
       </c>
       <c r="O18" s="0">
-        <v>1.7203454545454548</v>
+        <v>82.110134038026217</v>
       </c>
       <c r="P18" s="0">
-        <v>0.48859275531976953</v>
+        <v>20.276116855441522</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         <v>2.0843065163868157</v>
       </c>
       <c r="O19" s="0">
-        <v>4.3008636363636361</v>
+        <v>242.09964734485072</v>
       </c>
       <c r="P19" s="0">
-        <v>1.8455663945729124</v>
+        <v>104.88975574093729</v>
       </c>
     </row>
     <row r="20">
@@ -1136,10 +1136,10 @@
         <v>3.7579608305401173</v>
       </c>
       <c r="O20" s="0">
-        <v>9.8919863636363612</v>
+        <v>560.25344571454104</v>
       </c>
       <c r="P20" s="0">
-        <v>2.9340389154642574</v>
+        <v>166.94765708029666</v>
       </c>
     </row>
     <row r="21">
@@ -1186,10 +1186,10 @@
         <v>1.4563854805082452</v>
       </c>
       <c r="O21" s="0">
-        <v>11.240452631578947</v>
+        <v>629.66067425201345</v>
       </c>
       <c r="P21" s="0">
-        <v>3.4408239568976393</v>
+        <v>193.85347490393204</v>
       </c>
     </row>
     <row r="22">
@@ -1236,10 +1236,10 @@
         <v>13.946213019441796</v>
       </c>
       <c r="O22" s="0">
-        <v>19.783972727272729</v>
+        <v>1118.0876587960811</v>
       </c>
       <c r="P22" s="0">
-        <v>4.1500940466325966</v>
+        <v>235.32063753393194</v>
       </c>
     </row>
     <row r="23">
@@ -1286,10 +1286,10 @@
         <v>1.5366554294540649</v>
       </c>
       <c r="O23" s="0">
-        <v>21.258554545454547</v>
+        <v>1194.6399077796943</v>
       </c>
       <c r="P23" s="0">
-        <v>4.0727932643564575</v>
+        <v>226.82999973487986</v>
       </c>
     </row>
     <row r="24">
@@ -1336,10 +1336,10 @@
         <v>2.5562320517591188</v>
       </c>
       <c r="O24" s="0">
-        <v>24.883568181818188</v>
+        <v>1414.0979456422438</v>
       </c>
       <c r="P24" s="0">
-        <v>4.3210666075017805</v>
+        <v>243.35371403633505</v>
       </c>
     </row>
     <row r="25">
@@ -1386,10 +1386,10 @@
         <v>1.0137155128100506</v>
       </c>
       <c r="O25" s="0">
-        <v>33.300972727272729</v>
+        <v>1874.2925638964371</v>
       </c>
       <c r="P25" s="0">
-        <v>8.3445539973496015</v>
+        <v>463.43867495472182</v>
       </c>
     </row>
     <row r="26">
@@ -1436,10 +1436,10 @@
         <v>1.6336148623720446</v>
       </c>
       <c r="O26" s="0">
-        <v>34.898436363636364</v>
+        <v>1958.5594495516073</v>
       </c>
       <c r="P26" s="0">
-        <v>6.4369991305323193</v>
+        <v>357.54820917167223</v>
       </c>
     </row>
     <row r="27">
@@ -1486,10 +1486,10 @@
         <v>7.3214687495348922</v>
       </c>
       <c r="O27" s="0">
-        <v>35.881490909090914</v>
+        <v>2011.6276273441558</v>
       </c>
       <c r="P27" s="0">
-        <v>5.3831427000003904</v>
+        <v>297.21528318964096</v>
       </c>
     </row>
     <row r="28">
@@ -1536,10 +1536,10 @@
         <v>1.1624898113990891</v>
       </c>
       <c r="O28" s="0">
-        <v>34.406909090909089</v>
+        <v>1870.5022681164751</v>
       </c>
       <c r="P28" s="0">
-        <v>6.0480780526286786</v>
+        <v>326.61111683185891</v>
       </c>
     </row>
     <row r="29">
@@ -1586,10 +1586,10 @@
         <v>0.83236215170343231</v>
       </c>
       <c r="O29" s="0">
-        <v>30.093110526315787</v>
+        <v>1620.7164167702267</v>
       </c>
       <c r="P29" s="0">
-        <v>5.2583700535148195</v>
+        <v>276.73646169487245</v>
       </c>
     </row>
     <row r="30">
@@ -1636,10 +1636,10 @@
         <v>0.57369905143559663</v>
       </c>
       <c r="O30" s="0">
-        <v>33.485295454545451</v>
+        <v>1812.5157070507901</v>
       </c>
       <c r="P30" s="0">
-        <v>5.8236901385911404</v>
+        <v>317.27077489965501</v>
       </c>
     </row>
     <row r="31">
@@ -1686,10 +1686,10 @@
         <v>0.99684301315652879</v>
       </c>
       <c r="O31" s="0">
-        <v>41.226849999999999</v>
+        <v>2244.9500767703648</v>
       </c>
       <c r="P31" s="0">
-        <v>8.2555511063080242</v>
+        <v>453.30191787929903</v>
       </c>
     </row>
     <row r="32">
@@ -1736,10 +1736,10 @@
         <v>1.2478763372765209</v>
       </c>
       <c r="O32" s="0">
-        <v>40.366677272727273</v>
+        <v>2219.9478514996617</v>
       </c>
       <c r="P32" s="0">
-        <v>7.1177692962584116</v>
+        <v>399.54866788205146</v>
       </c>
     </row>
     <row r="33">
@@ -1786,10 +1786,10 @@
         <v>15.377982690576232</v>
       </c>
       <c r="O33" s="0">
-        <v>30.044604545454551</v>
+        <v>1014.889590936324</v>
       </c>
       <c r="P33" s="0">
-        <v>6.2387559592041679</v>
+        <v>247.43505663383664</v>
       </c>
     </row>
     <row r="34">
@@ -1836,10 +1836,10 @@
         <v>18.700819789904372</v>
       </c>
       <c r="O34" s="0">
-        <v>28.139936363636366</v>
+        <v>1023.5884829543371</v>
       </c>
       <c r="P34" s="0">
-        <v>9.1627720880409846</v>
+        <v>402.48811133830623</v>
       </c>
     </row>
     <row r="35">
@@ -1886,10 +1886,10 @@
         <v>8.9801147074855479</v>
       </c>
       <c r="O35" s="0">
-        <v>28.938668181818183</v>
+        <v>1062.8143485577211</v>
       </c>
       <c r="P35" s="0">
-        <v>9.2709095746978658</v>
+        <v>450.81110618322492</v>
       </c>
     </row>
     <row r="36">
@@ -1936,10 +1936,10 @@
         <v>21.855421714669383</v>
       </c>
       <c r="O36" s="0">
-        <v>15.037662500000005</v>
+        <v>425.73456664521922</v>
       </c>
       <c r="P36" s="0">
-        <v>2.617192219868381</v>
+        <v>76.207963456188963</v>
       </c>
     </row>
     <row r="37">
@@ -1986,10 +1986,10 @@
         <v>16.230102174217254</v>
       </c>
       <c r="O37" s="0">
-        <v>26.665354545454548</v>
+        <v>876.67788180511855</v>
       </c>
       <c r="P37" s="0">
-        <v>5.8123044330167462</v>
+        <v>225.7027668121369</v>
       </c>
     </row>
     <row r="38">
@@ -2036,10 +2036,10 @@
         <v>16.595449302419802</v>
       </c>
       <c r="O38" s="0">
-        <v>26.788236363636369</v>
+        <v>782.97013267340162</v>
       </c>
       <c r="P38" s="0">
-        <v>4.5899905504743179</v>
+        <v>134.84781477564408</v>
       </c>
     </row>
     <row r="39">
@@ -2086,10 +2086,10 @@
         <v>8.3567949796232632</v>
       </c>
       <c r="O39" s="0">
-        <v>27.95561363636364</v>
+        <v>831.73760691404345</v>
       </c>
       <c r="P39" s="0">
-        <v>4.5473586532954613</v>
+        <v>139.9392136028591</v>
       </c>
     </row>
     <row r="40">
@@ -2136,10 +2136,10 @@
         <v>11.746279527455203</v>
       </c>
       <c r="O40" s="0">
-        <v>30.938911111111111</v>
+        <v>958.43905837389161</v>
       </c>
       <c r="P40" s="0">
-        <v>5.5955365891616102</v>
+        <v>178.60495545824884</v>
       </c>
     </row>
     <row r="41">
@@ -2186,10 +2186,10 @@
         <v>35.068005219033019</v>
       </c>
       <c r="O41" s="0">
-        <v>31.273422727272735</v>
+        <v>926.50754983630713</v>
       </c>
       <c r="P41" s="0">
-        <v>5.0734433293645953</v>
+        <v>150.82524869402749</v>
       </c>
     </row>
     <row r="42">
@@ -2236,10 +2236,10 @@
         <v>9.9390465539564463</v>
       </c>
       <c r="O42" s="0">
-        <v>31.826390909090911</v>
+        <v>934.66152921890341</v>
       </c>
       <c r="P42" s="0">
-        <v>5.611902004864648</v>
+        <v>166.92776307696349</v>
       </c>
     </row>
     <row r="43">
@@ -2286,10 +2286,10 @@
         <v>19.477954934108428</v>
       </c>
       <c r="O43" s="0">
-        <v>39.014977272727279</v>
+        <v>1107.30351296396</v>
       </c>
       <c r="P43" s="0">
-        <v>7.2050218357439304</v>
+        <v>197.27741620435074</v>
       </c>
     </row>
     <row r="44">
@@ -2336,10 +2336,10 @@
         <v>23.791132430063289</v>
       </c>
       <c r="O44" s="0">
-        <v>27.531994736842108</v>
+        <v>762.58153466419026</v>
       </c>
       <c r="P44" s="0">
-        <v>4.7775394730160556</v>
+        <v>117.60484350308596</v>
       </c>
     </row>
     <row r="45">
@@ -2386,10 +2386,10 @@
         <v>72.813171221254734</v>
       </c>
       <c r="O45" s="0">
-        <v>35.881490909090914</v>
+        <v>980.71342063600048</v>
       </c>
       <c r="P45" s="0">
-        <v>7.0093946650035059</v>
+        <v>189.48058483926411</v>
       </c>
     </row>
     <row r="46">
@@ -2436,10 +2436,10 @@
         <v>21.611544658391967</v>
       </c>
       <c r="O46" s="0">
-        <v>29.860281818181818</v>
+        <v>800.93681712347393</v>
       </c>
       <c r="P46" s="0">
-        <v>5.8352076613119443</v>
+        <v>151.34599071903207</v>
       </c>
     </row>
     <row r="47">
@@ -2486,10 +2486,10 @@
         <v>6.3358526384932921</v>
       </c>
       <c r="O47" s="0">
-        <v>34.591231818181818</v>
+        <v>980.33997493778088</v>
       </c>
       <c r="P47" s="0">
-        <v>6.9367614329948761</v>
+        <v>194.49117275704072</v>
       </c>
     </row>
     <row r="48">
@@ -2536,10 +2536,10 @@
         <v>5.283104444708286</v>
       </c>
       <c r="O48" s="0">
-        <v>2.0275499999999997</v>
+        <v>101.24748633857224</v>
       </c>
       <c r="P48" s="0">
-        <v>1.198153990520417</v>
+        <v>57.870559127304546</v>
       </c>
     </row>
     <row r="49">
@@ -2586,10 +2586,10 @@
         <v>21.990681347778217</v>
       </c>
       <c r="O49" s="0">
-        <v>2.0275500000000002</v>
+        <v>89.676990153019759</v>
       </c>
       <c r="P49" s="0">
-        <v>0.71563934611794611</v>
+        <v>32.108626977563823</v>
       </c>
     </row>
     <row r="50">
@@ -2636,10 +2636,10 @@
         <v>7.483057319508938</v>
       </c>
       <c r="O50" s="0">
-        <v>4.7309500000000009</v>
+        <v>214.06929696928583</v>
       </c>
       <c r="P50" s="0">
-        <v>1.4194870022193571</v>
+        <v>66.006443310897254</v>
       </c>
     </row>
     <row r="51">
@@ -2686,10 +2686,10 @@
         <v>5.7158038873960573</v>
       </c>
       <c r="O51" s="0">
-        <v>8.1102000000000007</v>
+        <v>357.17993232893696</v>
       </c>
       <c r="P51" s="0">
-        <v>2.0628396084773608</v>
+        <v>90.288751702313206</v>
       </c>
     </row>
     <row r="52">
@@ -2736,10 +2736,10 @@
         <v>14.928755755619564</v>
       </c>
       <c r="O52" s="0">
-        <v>13.090147368421052</v>
+        <v>582.61607888282322</v>
       </c>
       <c r="P52" s="0">
-        <v>3.1319588584861098</v>
+        <v>135.98669874227724</v>
       </c>
     </row>
     <row r="53">
@@ -2786,10 +2786,10 @@
         <v>2.6638522993321532</v>
       </c>
       <c r="O53" s="0">
-        <v>21.319995454545452</v>
+        <v>943.9061060348572</v>
       </c>
       <c r="P53" s="0">
-        <v>3.9452937786710711</v>
+        <v>172.50070918918752</v>
       </c>
     </row>
     <row r="54">
@@ -2836,10 +2836,10 @@
         <v>23.797968646108025</v>
       </c>
       <c r="O54" s="0">
-        <v>25.928063636363639</v>
+        <v>1138.6233377147028</v>
       </c>
       <c r="P54" s="0">
-        <v>4.0935729567125554</v>
+        <v>181.00231186431409</v>
       </c>
     </row>
     <row r="55">
@@ -2886,10 +2886,10 @@
         <v>13.249893738430034</v>
       </c>
       <c r="O55" s="0">
-        <v>25.682300000000001</v>
+        <v>1121.8494022703881</v>
       </c>
       <c r="P55" s="0">
-        <v>3.6733629155988616</v>
+        <v>163.2014559472521</v>
       </c>
     </row>
     <row r="56">
@@ -2936,10 +2936,10 @@
         <v>7.1153187606545094</v>
       </c>
       <c r="O56" s="0">
-        <v>27.771290909090908</v>
+        <v>1207.2343277447801</v>
       </c>
       <c r="P56" s="0">
-        <v>3.6902560702096285</v>
+        <v>161.24101688280814</v>
       </c>
     </row>
     <row r="57">
@@ -2986,10 +2986,10 @@
         <v>2.359951758274446</v>
       </c>
       <c r="O57" s="0">
-        <v>28.447140909090912</v>
+        <v>1246.333417808037</v>
       </c>
       <c r="P57" s="0">
-        <v>4.0005848804409778</v>
+        <v>180.50453544392664</v>
       </c>
     </row>
     <row r="58">
@@ -3036,10 +3036,10 @@
         <v>1.7258328674992796</v>
       </c>
       <c r="O58" s="0">
-        <v>28.570022727272725</v>
+        <v>1249.6318604273133</v>
       </c>
       <c r="P58" s="0">
-        <v>4.0729036055636652</v>
+        <v>181.24951987204344</v>
       </c>
     </row>
     <row r="59">
@@ -3086,10 +3086,10 @@
         <v>3.8454774166589494</v>
       </c>
       <c r="O59" s="0">
-        <v>29.430195454545455</v>
+        <v>1253.5483593684608</v>
       </c>
       <c r="P59" s="0">
-        <v>4.020754216602116</v>
+        <v>175.57153507993027</v>
       </c>
     </row>
     <row r="60">
@@ -3136,10 +3136,10 @@
         <v>3.177201804496443</v>
       </c>
       <c r="O60" s="0">
-        <v>27.674278947368425</v>
+        <v>1196.6943321937997</v>
       </c>
       <c r="P60" s="0">
-        <v>3.8153074693613949</v>
+        <v>169.05559930872815</v>
       </c>
     </row>
     <row r="61">
@@ -3186,10 +3186,10 @@
         <v>9.7745794161917683</v>
       </c>
       <c r="O61" s="0">
-        <v>34.284027272727272</v>
+        <v>1441.5717055705918</v>
       </c>
       <c r="P61" s="0">
-        <v>5.9960787262721045</v>
+        <v>236.54510942477313</v>
       </c>
     </row>
     <row r="62">
@@ -3236,10 +3236,10 @@
         <v>1.7317226386414346</v>
       </c>
       <c r="O62" s="0">
-        <v>39.998031818181822</v>
+        <v>1677.556916506891</v>
       </c>
       <c r="P62" s="0">
-        <v>8.0817013695238646</v>
+        <v>313.66186037042803</v>
       </c>
     </row>
     <row r="63">
@@ -3286,10 +3286,10 @@
         <v>5.9203268812190171</v>
       </c>
       <c r="O63" s="0">
-        <v>33.608177272727275</v>
+        <v>1434.5951666099381</v>
       </c>
       <c r="P63" s="0">
-        <v>4.3897450857067115</v>
+        <v>191.25694012240439</v>
       </c>
     </row>
   </sheetData>

--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1120" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1260" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>
